--- a/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Thang11/Tuan3.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Thang11/Tuan3.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A2:M26"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,11 +599,17 @@
       </c>
       <c r="D7" s="12">
         <f t="shared" ref="D7:D16" si="0">SUM(E7:G7)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>6</v>
+      </c>
+      <c r="F7" s="12">
+        <v>6</v>
+      </c>
+      <c r="G7" s="12">
+        <v>2</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -617,11 +623,13 @@
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="12">
+        <v>2</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -653,11 +661,13 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -778,20 +788,20 @@
       </c>
       <c r="C17" s="15">
         <f>SUM(E17:G17)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="9">
         <f>SUM(E6:E16)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F17" s="9">
         <f>SUM(F6:F16)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G17" s="9">
         <f>SUM(G6:G16)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
